--- a/Assets/_FightGame/xmls/AIInfo.xlsx
+++ b/Assets/_FightGame/xmls/AIInfo.xlsx
@@ -524,7 +524,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -592,7 +592,7 @@
         <v>8</v>
       </c>
       <c r="H2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I2">
         <v>10</v>
